--- a/evaluation/results/hybrid/pca/isolation_forest/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/isolation_forest/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8985765124555161</v>
+        <v>0.2384341637010676</v>
       </c>
       <c r="C2">
+        <v>0.06140350877192982</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.115702479338843</v>
+      </c>
+      <c r="F2">
+        <v>0.2464788732394366</v>
+      </c>
+      <c r="G2">
+        <v>0.629757785467128</v>
+      </c>
+      <c r="H2">
+        <v>0.6521535580524345</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>428</v>
+      </c>
+      <c r="K2">
+        <v>106</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.4728464419475655</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>29</v>
-      </c>
-      <c r="K2">
-        <v>505</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9474671669793621</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9456928838951311</v>
+        <v>0.198501872659176</v>
       </c>
       <c r="D2">
-        <v>0.9465791940018744</v>
+        <v>0.33125</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8985765124555161</v>
+        <v>0.2384341637010676</v>
       </c>
       <c r="C4">
-        <v>0.8985765124555161</v>
+        <v>0.2384341637010676</v>
       </c>
       <c r="D4">
-        <v>0.8985765124555161</v>
+        <v>0.2384341637010676</v>
       </c>
       <c r="E4">
-        <v>0.8985765124555161</v>
+        <v>0.2384341637010676</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.473733583489681</v>
+        <v>0.5307017543859649</v>
       </c>
       <c r="C5">
-        <v>0.4728464419475655</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="D5">
-        <v>0.4732895970009372</v>
+        <v>0.2234762396694215</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9002623970942693</v>
+        <v>0.9532371854904165</v>
       </c>
       <c r="C6">
-        <v>0.8985765124555161</v>
+        <v>0.2384341637010676</v>
       </c>
       <c r="D6">
-        <v>0.8994186647633469</v>
+        <v>0.3205109776183053</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>505</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>28</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
